--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10007"/>
+    <workbookView windowWidth="22368" windowHeight="10007" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>维护管理员</t>
-  </si>
-  <si>
-    <t>1用户名或密码错误!</t>
-  </si>
-  <si>
-    <t>未通过</t>
   </si>
 </sst>
 </file>
@@ -79,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -101,6 +95,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -110,7 +133,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,66 +202,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,45 +226,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,31 +246,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,91 +390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,19 +402,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,31 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,11 +481,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,6 +492,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -520,11 +523,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,166 +552,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,8 +1032,8 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1140,8 +1134,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" customHeight="1" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1173,20 +1167,18 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -1,239 +1,178 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10007" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22368" windowHeight="10007" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t>密码错误</t>
-  </si>
-  <si>
-    <t>{"username":"wadmin","password":"123456"}</t>
-  </si>
-  <si>
-    <t>用户名或密码错误!</t>
-  </si>
-  <si>
-    <t>账号为空</t>
-  </si>
-  <si>
-    <t>{"username":'',"password":"w123456"}</t>
-  </si>
-  <si>
-    <t>用户名不能为空</t>
-  </si>
-  <si>
-    <t>密码为空</t>
-  </si>
-  <si>
-    <t>{"username":"wadmin","password":''}</t>
-  </si>
-  <si>
-    <t>密码不能为空</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>{"username":"wadmin","password":"w123456"}</t>
-  </si>
-  <si>
-    <t>维护管理员</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -555,160 +494,160 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -764,11 +703,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1028,160 +1030,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="26" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="6.52777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.3611111111111" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1" customWidth="1"/>
+    <col width="6.52777777777778" customWidth="1" style="1" min="1" max="1"/>
+    <col width="19" customWidth="1" style="1" min="2" max="2"/>
+    <col width="51.1111111111111" customWidth="1" style="1" min="3" max="3"/>
+    <col width="22.3611111111111" customWidth="1" style="1" min="4" max="4"/>
+    <col width="15.2222222222222" customWidth="1" style="1" min="5" max="5"/>
+    <col width="9" customWidth="1" style="1" min="6" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>response</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>密码错误</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>{"username":"wadmin","password":"123456"}</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>用户名或密码错误!</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>账号为空</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>{"username":'',"password":"w123456"}</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>用户名不能为空</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>密码为空</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>{"username":"wadmin","password":''}</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>密码不能为空</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>{"username":"wadmin","password":"w123456"}</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>维护管理员</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" customHeight="1" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="26" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="6.52777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.3611111111111" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1" customWidth="1"/>
+    <col width="6.52777777777778" customWidth="1" style="1" min="1" max="1"/>
+    <col width="19" customWidth="1" style="1" min="2" max="2"/>
+    <col width="51.1111111111111" customWidth="1" style="1" min="3" max="3"/>
+    <col width="22.3611111111111" customWidth="1" style="1" min="4" max="4"/>
+    <col width="15.2222222222222" customWidth="1" style="1" min="5" max="5"/>
+    <col width="9" customWidth="1" style="1" min="6" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>response</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
         <v>4</v>
       </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>{"username":"wadmin","password":"w123456"}</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>维护管理员</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n"/>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="3">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3"/>
+    <row r="5">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>